--- a/biology/Zoologie/Dynamine_athemon/Dynamine_athemon.xlsx
+++ b/biology/Zoologie/Dynamine_athemon/Dynamine_athemon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dynamine athemon  est une espèce d'insectes lépidoptères de la famille des Nymphalidae,sous-famille des Biblidinae, de la tribu des Eubagini , et du genre Dynamine .
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dynamine athemon a été décrit par l'entomologiste suédois Carl von Linné, en 1758, sous le nom initial de Papilio athemon [1] 
-Synonymie
-Papilio athemon (Linné, 1758) Protonyme
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dynamine athemon a été décrit par l'entomologiste suédois Carl von Linné, en 1758, sous le nom initial de Papilio athemon  
 </t>
         </is>
       </c>
@@ -541,60 +553,64 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Papilio athemon (Linné, 1758) Protonyme
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dynamine_athemon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dynamine_athemon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des sous-espèces
-Dynamine athemon athemon (Linné, 1758) [2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces
+Dynamine athemon athemon (Linné, 1758) 
 Dynamine athemon athemaena (Hübner, 1824)
 Dynamine athemon maeon (Doubleday, 1849)
 Synonymie pour cette sous-espèce
 Dynamine pittheus (Staudinger, 1885)
-Dynamine maeon (Lewis, H. L., 1974) [3]
+Dynamine maeon (Lewis, H. L., 1974) 
 Dynamine athemon amazonica (Röber, 1915)
 Dynamine athemon isolda (Hall, 1919)
 Synonymie pour cette sous-espèce
 Dynamine motacilla (Röber, 1924)
 Dynamine athemon barreiroi (Fernández, 1928)
 Synonymie pour cette sous-espèce
-Dynamine maeon f. bertilo (Zikán, 1937)
-Noms vernaculaires
-En anglais Dynamine athemon se nomme Exquisite Sailor et Dynamine athemon maeon Ghost Sailor[4],[5].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Dynamine_athemon</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dynamine_athemon</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dynamine athemon est un papillon d'une envergure d'environ 35 mm, au dessus des ailes blanc bordé de noir ou de bleu noir sur le bord costal, de noir sur le bord externe des ailes antérieures en réservant des taches blanches proches de l'apex et bordé de noir sur le bord externe des ailes postérieures [6].
-Le revers des ailes antérieures est blanc avec une bordure ocre doublée de cuivré et un dessin délimitant des taches blanches proches de l'apex des ailes antérieures et formant une rayure basale et un triangle dans l'aire discale aux ailes postérieures.
-</t>
+Dynamine maeon f. bertilo (Zikán, 1937)</t>
         </is>
       </c>
     </row>
@@ -619,10 +635,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En anglais Dynamine athemon se nomme Exquisite Sailor et Dynamine athemon maeon Ghost Sailor,.
+</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -645,16 +672,150 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dynamine athemon est un papillon d'une envergure d'environ 35 mm, au dessus des ailes blanc bordé de noir ou de bleu noir sur le bord costal, de noir sur le bord externe des ailes antérieures en réservant des taches blanches proches de l'apex et bordé de noir sur le bord externe des ailes postérieures .
+Le revers des ailes antérieures est blanc avec une bordure ocre doublée de cuivré et un dessin délimitant des taches blanches proches de l'apex des ailes antérieures et formant une rayure basale et un triangle dans l'aire discale aux ailes postérieures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dynamine_athemon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dynamine_athemon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dynamine_athemon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dynamine_athemon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dynamine athemon est présent présent à Panama, au Venezuela, en Colombie, en Équateur, en Bolivie, au Pérou, au Brésil et en Guyane. Dynamine athemon athemon  est présent au Brésil et en Guyane, Dynamine athemon barreiroi en Équateur et  au Pérou, Dynamine athemon maeon  à Panama, au Venezuela et en Colombie[7],[6].
-Biotope
-Dynamine athemon réside dans la forêt primaire, près des rives des cours d'eau[4].
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dynamine athemon est présent présent à Panama, au Venezuela, en Colombie, en Équateur, en Bolivie, au Pérou, au Brésil et en Guyane. Dynamine athemon athemon  est présent au Brésil et en Guyane, Dynamine athemon barreiroi en Équateur et  au Pérou, Dynamine athemon maeon  à Panama, au Venezuela et en Colombie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dynamine_athemon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dynamine_athemon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dynamine athemon réside dans la forêt primaire, près des rives des cours d'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dynamine_athemon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dynamine_athemon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
